--- a/ketang/sp21/sp21-proj3-starter/Book1.xlsx
+++ b/ketang/sp21/sp21-proj3-starter/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ketang/MyCS61C/ketang/sp21/sp21-proj3-starter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D45F16C0-FCEA-CD4F-8F75-B7E879243A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A7BD3F0-99F2-9849-BBCF-29570CDE312A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15180" yWindow="5640" windowWidth="28040" windowHeight="17440" xr2:uid="{8EE1AFFD-A597-2F44-A2B0-7A9A818A6048}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26580" xr2:uid="{8EE1AFFD-A597-2F44-A2B0-7A9A818A6048}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
   <si>
     <t>inst</t>
   </si>
@@ -155,37 +155,61 @@
     <t>csrwi</t>
   </si>
   <si>
-    <t>breq</t>
-  </si>
-  <si>
-    <t>brlt</t>
-  </si>
-  <si>
-    <t>pcsel</t>
-  </si>
-  <si>
-    <t>immsel</t>
-  </si>
-  <si>
-    <t>brun</t>
-  </si>
-  <si>
-    <t>asel</t>
-  </si>
-  <si>
-    <t>bsel</t>
-  </si>
-  <si>
-    <t>alusel</t>
-  </si>
-  <si>
-    <t>memrw</t>
-  </si>
-  <si>
-    <t>regwen</t>
-  </si>
-  <si>
-    <t>wbsel</t>
+    <t>BrEq</t>
+  </si>
+  <si>
+    <t>BrLt</t>
+  </si>
+  <si>
+    <t>ImmSel</t>
+  </si>
+  <si>
+    <t>BrUn</t>
+  </si>
+  <si>
+    <t>Asel(1:选rs1,0:选pc)</t>
+  </si>
+  <si>
+    <t>Bsel(1:选rs2, 0:选imm)</t>
+  </si>
+  <si>
+    <t>MemRW(0:read,1:write)</t>
+  </si>
+  <si>
+    <t>RegWEn(0:不写回reg，1:写回reg)</t>
+  </si>
+  <si>
+    <t>WBSel(0:data from mem,1:aluresult,2:pc+4)</t>
+  </si>
+  <si>
+    <t>ALUSel(decimal值，看alu.circ的表)</t>
+  </si>
+  <si>
+    <t>PCSel(0:pc+4, 1:aluresult)</t>
+  </si>
+  <si>
+    <t>TYPE</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>0(因为无符号的blt是bltu指令，所以认为这里是比较有符号，所以写0)</t>
+  </si>
+  <si>
+    <t>UJ</t>
+  </si>
+  <si>
+    <t>SB</t>
+  </si>
+  <si>
+    <t>U</t>
   </si>
 </sst>
 </file>
@@ -201,17 +225,125 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFFC000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFC000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFFC000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFFC000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFFC000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFC000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFC000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFFC000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFFC000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFFC000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFFC000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -221,13 +353,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -537,243 +694,1077 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB45812B-1177-8547-B4F4-A106F379297B}">
-  <dimension ref="A1:L39"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25:K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="38.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K1" t="s">
-        <v>48</v>
-      </c>
-      <c r="L1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>8</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>12</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>9</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>11</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>13</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>6</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>7</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19" s="2"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>4</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>5</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>13</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>6</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23" s="2"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>7</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24" s="2"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="M26" s="2"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="M27" s="2"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="M29" s="2"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>54</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="M30" s="2"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>54</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="M31" s="2"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="M32" s="2"/>
+    </row>
+    <row r="33" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="M33" s="2"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7">
+        <v>0</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0</v>
+      </c>
+      <c r="I34" s="7">
+        <v>0</v>
+      </c>
+      <c r="J34" s="7">
+        <v>0</v>
+      </c>
+      <c r="K34" s="8">
+        <v>1</v>
+      </c>
+      <c r="L34" s="3">
+        <v>1</v>
+      </c>
+      <c r="M34" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10">
+        <v>0</v>
+      </c>
+      <c r="I35" s="10">
+        <v>15</v>
+      </c>
+      <c r="J35" s="10">
+        <v>0</v>
+      </c>
+      <c r="K35" s="11">
+        <v>1</v>
+      </c>
+      <c r="L35" s="4">
+        <v>1</v>
+      </c>
+      <c r="M35" s="13"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D36" s="12">
+        <v>1</v>
+      </c>
+      <c r="G36" s="12">
+        <v>0</v>
+      </c>
+      <c r="H36" s="12">
+        <v>0</v>
+      </c>
+      <c r="I36" s="12">
+        <v>0</v>
+      </c>
+      <c r="J36" s="12">
+        <v>0</v>
+      </c>
+      <c r="K36" s="12">
+        <v>1</v>
+      </c>
+      <c r="L36" s="12">
+        <v>2</v>
+      </c>
+      <c r="M36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D37" s="12">
+        <v>1</v>
+      </c>
+      <c r="G37" s="12">
+        <v>1</v>
+      </c>
+      <c r="H37" s="12">
+        <v>0</v>
+      </c>
+      <c r="I37" s="12">
+        <v>0</v>
+      </c>
+      <c r="J37" s="12">
+        <v>0</v>
+      </c>
+      <c r="K37" s="12">
+        <v>0</v>
+      </c>
+      <c r="M37" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="M2:M13"/>
+    <mergeCell ref="M25:M27"/>
+    <mergeCell ref="M14:M24"/>
+    <mergeCell ref="M28:M33"/>
+    <mergeCell ref="M34:M35"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A2:L39">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/ketang/sp21/sp21-proj3-starter/Book1.xlsx
+++ b/ketang/sp21/sp21-proj3-starter/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ketang/MyCS61C/ketang/sp21/sp21-proj3-starter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A7BD3F0-99F2-9849-BBCF-29570CDE312A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B04EBEB-13D4-5F42-83E5-EE7E2F93513B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26580" xr2:uid="{8EE1AFFD-A597-2F44-A2B0-7A9A818A6048}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18800" xr2:uid="{8EE1AFFD-A597-2F44-A2B0-7A9A818A6048}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="87">
   <si>
     <t>inst</t>
   </si>
@@ -210,13 +210,100 @@
   </si>
   <si>
     <t>U</t>
+  </si>
+  <si>
+    <t>func7</t>
+  </si>
+  <si>
+    <t>func3</t>
+  </si>
+  <si>
+    <t>0x01</t>
+  </si>
+  <si>
+    <t>0x0</t>
+  </si>
+  <si>
+    <t>0x20</t>
+  </si>
+  <si>
+    <t>0x00</t>
+  </si>
+  <si>
+    <t>0x1</t>
+  </si>
+  <si>
+    <t>0x3</t>
+  </si>
+  <si>
+    <t>0x2</t>
+  </si>
+  <si>
+    <t>0x4</t>
+  </si>
+  <si>
+    <t>0x5</t>
+  </si>
+  <si>
+    <t>0x6</t>
+  </si>
+  <si>
+    <t>0x7</t>
+  </si>
+  <si>
+    <t>0x37</t>
+  </si>
+  <si>
+    <t>ALUSel</t>
+  </si>
+  <si>
+    <t>⎷</t>
+  </si>
+  <si>
+    <t>勾，表示每个ALUSel信号都是唯一的func3+func7能够决定的</t>
+  </si>
+  <si>
+    <t>alusel</t>
+  </si>
+  <si>
+    <t>opcode</t>
+  </si>
+  <si>
+    <t>0001</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>1011</t>
+  </si>
+  <si>
+    <t>0010</t>
+  </si>
+  <si>
+    <t>0100</t>
+  </si>
+  <si>
+    <t>0101</t>
+  </si>
+  <si>
+    <t>1101</t>
+  </si>
+  <si>
+    <t>0110</t>
+  </si>
+  <si>
+    <t>0111</t>
+  </si>
+  <si>
+    <t>1110</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -224,8 +311,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -235,6 +343,54 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,12 +509,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -368,15 +521,119 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -694,10 +951,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB45812B-1177-8547-B4F4-A106F379297B}">
-  <dimension ref="A1:M39"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:AE93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25:K33"/>
+    <sheetView tabSelected="1" topLeftCell="M54" zoomScale="114" zoomScaleNormal="173" workbookViewId="0">
+      <selection activeCell="V75" sqref="V75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -711,7 +969,7 @@
     <col min="12" max="12" width="38.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -752,7 +1010,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -777,11 +1035,11 @@
       <c r="L2">
         <v>1</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="32" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -806,9 +1064,9 @@
       <c r="L3">
         <v>1</v>
       </c>
-      <c r="M3" s="2"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M3" s="32"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -833,9 +1091,9 @@
       <c r="L4">
         <v>1</v>
       </c>
-      <c r="M4" s="2"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M4" s="32"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -860,9 +1118,9 @@
       <c r="L5">
         <v>1</v>
       </c>
-      <c r="M5" s="2"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M5" s="32"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -887,9 +1145,9 @@
       <c r="L6">
         <v>1</v>
       </c>
-      <c r="M6" s="2"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M6" s="32"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -914,9 +1172,9 @@
       <c r="L7">
         <v>1</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M7" s="32"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -941,9 +1199,9 @@
       <c r="L8">
         <v>1</v>
       </c>
-      <c r="M8" s="2"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M8" s="32"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -968,9 +1226,24 @@
       <c r="L9">
         <v>1</v>
       </c>
-      <c r="M9" s="2"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="32"/>
+      <c r="R9" t="s">
+        <v>58</v>
+      </c>
+      <c r="S9" t="s">
+        <v>59</v>
+      </c>
+      <c r="T9" t="s">
+        <v>76</v>
+      </c>
+      <c r="V9" t="s">
+        <v>72</v>
+      </c>
+      <c r="W9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -995,9 +1268,24 @@
       <c r="L10">
         <v>1</v>
       </c>
-      <c r="M10" s="2"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="32"/>
+      <c r="Q10" t="s">
+        <v>2</v>
+      </c>
+      <c r="R10" t="s">
+        <v>60</v>
+      </c>
+      <c r="S10" t="s">
+        <v>61</v>
+      </c>
+      <c r="V10" s="17">
+        <v>8</v>
+      </c>
+      <c r="W10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1022,9 +1310,24 @@
       <c r="L11">
         <v>1</v>
       </c>
-      <c r="M11" s="2"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M11" s="32"/>
+      <c r="Q11" t="s">
+        <v>3</v>
+      </c>
+      <c r="R11" t="s">
+        <v>62</v>
+      </c>
+      <c r="S11" t="s">
+        <v>61</v>
+      </c>
+      <c r="V11" s="17">
+        <v>12</v>
+      </c>
+      <c r="W11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1049,9 +1352,27 @@
       <c r="L12">
         <v>1</v>
       </c>
-      <c r="M12" s="2"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="32"/>
+      <c r="Q12" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="S12" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="U12" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="V12" s="17">
+        <v>1</v>
+      </c>
+      <c r="W12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1076,9 +1397,25 @@
       <c r="L13">
         <v>1</v>
       </c>
-      <c r="M13" s="2"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="32"/>
+      <c r="Q13" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="R13" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S13" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="U13" s="31"/>
+      <c r="V13" s="17">
+        <v>9</v>
+      </c>
+      <c r="W13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1103,11 +1440,26 @@
       <c r="L14">
         <v>0</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="M14" s="32" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="Q14" t="s">
+        <v>6</v>
+      </c>
+      <c r="R14" t="s">
+        <v>60</v>
+      </c>
+      <c r="S14" t="s">
+        <v>65</v>
+      </c>
+      <c r="V14" s="17">
+        <v>11</v>
+      </c>
+      <c r="W14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1132,9 +1484,27 @@
       <c r="L15">
         <v>0</v>
       </c>
-      <c r="M15" s="2"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="32"/>
+      <c r="Q15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="U15" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="V15" s="17">
+        <v>2</v>
+      </c>
+      <c r="W15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1159,9 +1529,25 @@
       <c r="L16">
         <v>0</v>
       </c>
-      <c r="M16" s="2"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M16" s="32"/>
+      <c r="Q16" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="R16" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="S16" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="U16" s="31"/>
+      <c r="V16" s="17">
+        <v>4</v>
+      </c>
+      <c r="W16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1186,9 +1572,25 @@
       <c r="L17">
         <v>1</v>
       </c>
-      <c r="M17" s="2"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M17" s="32"/>
+      <c r="Q17" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="R17" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="S17" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="U17" s="31"/>
+      <c r="V17" s="17">
+        <v>5</v>
+      </c>
+      <c r="W17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1213,9 +1615,25 @@
       <c r="L18">
         <v>1</v>
       </c>
-      <c r="M18" s="2"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M18" s="32"/>
+      <c r="Q18" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="R18" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="S18" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="U18" s="31"/>
+      <c r="V18" s="17">
+        <v>13</v>
+      </c>
+      <c r="W18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1240,9 +1658,25 @@
       <c r="L19">
         <v>1</v>
       </c>
-      <c r="M19" s="2"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M19" s="32"/>
+      <c r="Q19" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="R19" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="S19" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="U19" s="31"/>
+      <c r="V19" s="17">
+        <v>6</v>
+      </c>
+      <c r="W19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1267,9 +1701,25 @@
       <c r="L20">
         <v>1</v>
       </c>
-      <c r="M20" s="2"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="32"/>
+      <c r="Q20" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="R20" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="S20" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="U20" s="31"/>
+      <c r="V20" s="17">
+        <v>7</v>
+      </c>
+      <c r="W20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1294,9 +1744,27 @@
       <c r="L21">
         <v>1</v>
       </c>
-      <c r="M21" s="2"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M21" s="32"/>
+      <c r="Q21" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="R21" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="S21" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="U21" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="V21" s="17">
+        <v>1</v>
+      </c>
+      <c r="W21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1321,16 +1789,30 @@
       <c r="L22">
         <v>1</v>
       </c>
-      <c r="M22" s="2"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="32"/>
+      <c r="Q22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="U22" s="31"/>
+      <c r="V22" s="17">
+        <v>2</v>
+      </c>
+      <c r="W22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
-      <c r="E23" s="5"/>
+      <c r="E23" s="4"/>
       <c r="G23">
         <v>1</v>
       </c>
@@ -1349,9 +1831,23 @@
       <c r="L23">
         <v>1</v>
       </c>
-      <c r="M23" s="2"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M23" s="32"/>
+      <c r="Q23" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="U23" s="31"/>
+      <c r="V23" s="17">
+        <v>4</v>
+      </c>
+      <c r="W23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1376,9 +1872,25 @@
       <c r="L24">
         <v>1</v>
       </c>
-      <c r="M24" s="2"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M24" s="32"/>
+      <c r="Q24" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="R24" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="S24" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="U24" s="31"/>
+      <c r="V24" s="17">
+        <v>5</v>
+      </c>
+      <c r="W24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1400,11 +1912,27 @@
       <c r="K25">
         <v>0</v>
       </c>
-      <c r="M25" s="2" t="s">
+      <c r="M25" s="32" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="Q25" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="R25" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="S25" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="U25" s="31"/>
+      <c r="V25" s="17">
+        <v>13</v>
+      </c>
+      <c r="W25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1426,9 +1954,23 @@
       <c r="K26">
         <v>0</v>
       </c>
-      <c r="M26" s="2"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M26" s="32"/>
+      <c r="Q26" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="R26" s="13"/>
+      <c r="S26" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="U26" s="31"/>
+      <c r="V26" s="17">
+        <v>6</v>
+      </c>
+      <c r="W26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1450,9 +1992,23 @@
       <c r="K27">
         <v>0</v>
       </c>
-      <c r="M27" s="2"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M27" s="32"/>
+      <c r="Q27" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="U27" s="31"/>
+      <c r="V27" s="17">
+        <v>7</v>
+      </c>
+      <c r="W27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1477,11 +2033,23 @@
       <c r="K28">
         <v>0</v>
       </c>
-      <c r="M28" s="2" t="s">
+      <c r="M28" s="32" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="Q28" t="s">
+        <v>34</v>
+      </c>
+      <c r="T28" t="s">
+        <v>71</v>
+      </c>
+      <c r="V28" s="18">
+        <v>15</v>
+      </c>
+      <c r="W28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1506,9 +2074,9 @@
       <c r="K29">
         <v>0</v>
       </c>
-      <c r="M29" s="2"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="32"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -1536,9 +2104,9 @@
       <c r="K30">
         <v>0</v>
       </c>
-      <c r="M30" s="2"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="32"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -1566,9 +2134,9 @@
       <c r="K31">
         <v>0</v>
       </c>
-      <c r="M31" s="2"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="32"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1596,7 +2164,7 @@
       <c r="K32">
         <v>0</v>
       </c>
-      <c r="M32" s="2"/>
+      <c r="M32" s="32"/>
     </row>
     <row r="33" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -1626,89 +2194,89 @@
       <c r="K33">
         <v>0</v>
       </c>
-      <c r="M33" s="2"/>
+      <c r="M33" s="32"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7">
-        <v>0</v>
-      </c>
-      <c r="H34" s="7">
-        <v>0</v>
-      </c>
-      <c r="I34" s="7">
-        <v>0</v>
-      </c>
-      <c r="J34" s="7">
-        <v>0</v>
-      </c>
-      <c r="K34" s="8">
-        <v>1</v>
-      </c>
-      <c r="L34" s="3">
-        <v>1</v>
-      </c>
-      <c r="M34" s="13" t="s">
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6">
+        <v>0</v>
+      </c>
+      <c r="H34" s="6">
+        <v>0</v>
+      </c>
+      <c r="I34" s="6">
+        <v>0</v>
+      </c>
+      <c r="J34" s="6">
+        <v>0</v>
+      </c>
+      <c r="K34" s="7">
+        <v>1</v>
+      </c>
+      <c r="L34" s="2">
+        <v>1</v>
+      </c>
+      <c r="M34" s="33" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10">
-        <v>0</v>
-      </c>
-      <c r="I35" s="10">
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9">
+        <v>0</v>
+      </c>
+      <c r="I35" s="9">
         <v>15</v>
       </c>
-      <c r="J35" s="10">
-        <v>0</v>
-      </c>
-      <c r="K35" s="11">
-        <v>1</v>
-      </c>
-      <c r="L35" s="4">
-        <v>1</v>
-      </c>
-      <c r="M35" s="13"/>
+      <c r="J35" s="9">
+        <v>0</v>
+      </c>
+      <c r="K35" s="10">
+        <v>1</v>
+      </c>
+      <c r="L35" s="3">
+        <v>1</v>
+      </c>
+      <c r="M35" s="33"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>35</v>
       </c>
-      <c r="D36" s="12">
-        <v>1</v>
-      </c>
-      <c r="G36" s="12">
-        <v>0</v>
-      </c>
-      <c r="H36" s="12">
-        <v>0</v>
-      </c>
-      <c r="I36" s="12">
-        <v>0</v>
-      </c>
-      <c r="J36" s="12">
-        <v>0</v>
-      </c>
-      <c r="K36" s="12">
-        <v>1</v>
-      </c>
-      <c r="L36" s="12">
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
         <v>2</v>
       </c>
       <c r="M36" t="s">
@@ -1719,22 +2287,22 @@
       <c r="A37" t="s">
         <v>36</v>
       </c>
-      <c r="D37" s="12">
-        <v>1</v>
-      </c>
-      <c r="G37" s="12">
-        <v>1</v>
-      </c>
-      <c r="H37" s="12">
-        <v>0</v>
-      </c>
-      <c r="I37" s="12">
-        <v>0</v>
-      </c>
-      <c r="J37" s="12">
-        <v>0</v>
-      </c>
-      <c r="K37" s="12">
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
         <v>0</v>
       </c>
       <c r="M37" t="s">
@@ -1751,15 +2319,1308 @@
         <v>38</v>
       </c>
     </row>
+    <row r="50" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="Q50" s="16"/>
+      <c r="R50" s="16"/>
+      <c r="S50" s="16"/>
+      <c r="T50" s="16"/>
+      <c r="U50" s="16"/>
+      <c r="V50" s="16"/>
+      <c r="W50" s="16"/>
+      <c r="X50" s="16"/>
+      <c r="Y50" s="16"/>
+      <c r="Z50" s="16"/>
+      <c r="AA50" s="16"/>
+    </row>
+    <row r="57" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="N57" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="O57" s="31"/>
+      <c r="P57" s="31"/>
+      <c r="Q57" s="31"/>
+      <c r="R57" s="31"/>
+      <c r="S57" s="31"/>
+      <c r="T57" s="31"/>
+      <c r="U57" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="V57" s="34"/>
+      <c r="W57" s="34"/>
+      <c r="X57" s="34"/>
+      <c r="Y57" s="34"/>
+      <c r="Z57" s="34"/>
+      <c r="AA57" s="34"/>
+      <c r="AB57" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC57" s="35"/>
+      <c r="AD57" s="35"/>
+      <c r="AE57" s="16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L58" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="M58" t="s">
+        <v>2</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>1</v>
+      </c>
+      <c r="P58">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <v>0</v>
+      </c>
+      <c r="S58">
+        <v>1</v>
+      </c>
+      <c r="T58">
+        <v>1</v>
+      </c>
+      <c r="U58" s="19">
+        <v>0</v>
+      </c>
+      <c r="V58" s="19">
+        <v>0</v>
+      </c>
+      <c r="W58" s="19">
+        <v>0</v>
+      </c>
+      <c r="X58" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="20">
+        <v>1</v>
+      </c>
+      <c r="AB58" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE58" s="25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="59" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L59" s="31"/>
+      <c r="M59" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>1</v>
+      </c>
+      <c r="P59">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+      <c r="R59">
+        <v>0</v>
+      </c>
+      <c r="S59">
+        <v>1</v>
+      </c>
+      <c r="T59">
+        <v>1</v>
+      </c>
+      <c r="U59" s="19">
+        <v>0</v>
+      </c>
+      <c r="V59" s="19">
+        <v>1</v>
+      </c>
+      <c r="W59" s="19">
+        <v>0</v>
+      </c>
+      <c r="X59" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD59" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE59" s="25">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="60" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L60" s="31"/>
+      <c r="M60" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>1</v>
+      </c>
+      <c r="P60">
+        <v>1</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <v>0</v>
+      </c>
+      <c r="S60">
+        <v>1</v>
+      </c>
+      <c r="T60">
+        <v>1</v>
+      </c>
+      <c r="U60" s="16">
+        <v>0</v>
+      </c>
+      <c r="V60" s="16">
+        <v>0</v>
+      </c>
+      <c r="W60" s="16">
+        <v>0</v>
+      </c>
+      <c r="X60" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB60" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC60" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD60" s="27">
+        <v>1</v>
+      </c>
+      <c r="AE60" s="26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L61" s="31"/>
+      <c r="M61" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>1</v>
+      </c>
+      <c r="P61">
+        <v>1</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <v>0</v>
+      </c>
+      <c r="S61">
+        <v>1</v>
+      </c>
+      <c r="T61">
+        <v>1</v>
+      </c>
+      <c r="U61" s="19">
+        <v>0</v>
+      </c>
+      <c r="V61" s="19">
+        <v>0</v>
+      </c>
+      <c r="W61" s="19">
+        <v>0</v>
+      </c>
+      <c r="X61" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="29">
+        <v>1</v>
+      </c>
+      <c r="AB61" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="28">
+        <v>1</v>
+      </c>
+      <c r="AE61" s="25" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="62" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L62" s="31"/>
+      <c r="M62" t="s">
+        <v>6</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>1</v>
+      </c>
+      <c r="P62">
+        <v>1</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <v>0</v>
+      </c>
+      <c r="S62">
+        <v>1</v>
+      </c>
+      <c r="T62">
+        <v>1</v>
+      </c>
+      <c r="U62" s="19">
+        <v>0</v>
+      </c>
+      <c r="V62" s="19">
+        <v>0</v>
+      </c>
+      <c r="W62" s="19">
+        <v>0</v>
+      </c>
+      <c r="X62" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="29">
+        <v>1</v>
+      </c>
+      <c r="AB62" s="28">
+        <v>1</v>
+      </c>
+      <c r="AC62" s="28">
+        <v>1</v>
+      </c>
+      <c r="AD62" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE62" s="25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="63" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L63" s="31"/>
+      <c r="M63" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>1</v>
+      </c>
+      <c r="P63">
+        <v>1</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <v>0</v>
+      </c>
+      <c r="S63">
+        <v>1</v>
+      </c>
+      <c r="T63">
+        <v>1</v>
+      </c>
+      <c r="U63" s="19">
+        <v>0</v>
+      </c>
+      <c r="V63" s="19">
+        <v>0</v>
+      </c>
+      <c r="W63" s="19">
+        <v>0</v>
+      </c>
+      <c r="X63" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="22">
+        <v>1</v>
+      </c>
+      <c r="AD63" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L64" s="31"/>
+      <c r="M64" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>1</v>
+      </c>
+      <c r="P64">
+        <v>1</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="R64">
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <v>1</v>
+      </c>
+      <c r="T64">
+        <v>1</v>
+      </c>
+      <c r="U64" s="19">
+        <v>0</v>
+      </c>
+      <c r="V64" s="19">
+        <v>0</v>
+      </c>
+      <c r="W64" s="19">
+        <v>0</v>
+      </c>
+      <c r="X64" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="22">
+        <v>1</v>
+      </c>
+      <c r="AC64" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L65" s="31"/>
+      <c r="M65" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>1</v>
+      </c>
+      <c r="P65">
+        <v>1</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <v>0</v>
+      </c>
+      <c r="S65">
+        <v>1</v>
+      </c>
+      <c r="T65">
+        <v>1</v>
+      </c>
+      <c r="U65" s="19">
+        <v>0</v>
+      </c>
+      <c r="V65" s="19">
+        <v>0</v>
+      </c>
+      <c r="W65" s="19">
+        <v>0</v>
+      </c>
+      <c r="X65" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB65" s="28">
+        <v>1</v>
+      </c>
+      <c r="AC65" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="28">
+        <v>1</v>
+      </c>
+      <c r="AE65" s="25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="66" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L66" s="31"/>
+      <c r="M66" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>1</v>
+      </c>
+      <c r="P66">
+        <v>1</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <v>1</v>
+      </c>
+      <c r="T66">
+        <v>1</v>
+      </c>
+      <c r="U66" s="19">
+        <v>0</v>
+      </c>
+      <c r="V66" s="30">
+        <v>1</v>
+      </c>
+      <c r="W66" s="19">
+        <v>0</v>
+      </c>
+      <c r="X66" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y66" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z66" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA66" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB66" s="28">
+        <v>1</v>
+      </c>
+      <c r="AC66" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD66" s="28">
+        <v>1</v>
+      </c>
+      <c r="AE66" s="25" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="67" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L67" s="31"/>
+      <c r="M67" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>1</v>
+      </c>
+      <c r="P67">
+        <v>1</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <v>0</v>
+      </c>
+      <c r="S67">
+        <v>1</v>
+      </c>
+      <c r="T67">
+        <v>1</v>
+      </c>
+      <c r="U67" s="20">
+        <v>0</v>
+      </c>
+      <c r="V67" s="20">
+        <v>0</v>
+      </c>
+      <c r="W67" s="20">
+        <v>0</v>
+      </c>
+      <c r="X67" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y67" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z67" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA67" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB67" s="22">
+        <v>1</v>
+      </c>
+      <c r="AC67" s="22">
+        <v>1</v>
+      </c>
+      <c r="AD67" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE67" s="25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="68" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L68" s="31"/>
+      <c r="M68" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>1</v>
+      </c>
+      <c r="P68">
+        <v>1</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <v>0</v>
+      </c>
+      <c r="S68">
+        <v>1</v>
+      </c>
+      <c r="T68">
+        <v>1</v>
+      </c>
+      <c r="U68" s="20">
+        <v>0</v>
+      </c>
+      <c r="V68" s="20">
+        <v>0</v>
+      </c>
+      <c r="W68" s="20">
+        <v>0</v>
+      </c>
+      <c r="X68" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB68" s="28">
+        <v>1</v>
+      </c>
+      <c r="AC68" s="28">
+        <v>1</v>
+      </c>
+      <c r="AD68" s="28">
+        <v>1</v>
+      </c>
+      <c r="AE68" s="25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="69" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L69" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="M69" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <v>1</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+      <c r="R69">
+        <v>0</v>
+      </c>
+      <c r="S69">
+        <v>1</v>
+      </c>
+      <c r="T69">
+        <v>1</v>
+      </c>
+      <c r="U69" s="20">
+        <v>0</v>
+      </c>
+      <c r="V69" s="20">
+        <v>0</v>
+      </c>
+      <c r="W69" s="20">
+        <v>0</v>
+      </c>
+      <c r="X69" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB69" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="28">
+        <v>1</v>
+      </c>
+      <c r="AE69" s="25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="70" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L70" s="31"/>
+      <c r="M70" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <v>1</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <v>0</v>
+      </c>
+      <c r="S70">
+        <v>1</v>
+      </c>
+      <c r="T70">
+        <v>1</v>
+      </c>
+      <c r="U70" s="19"/>
+      <c r="V70" s="19"/>
+      <c r="W70" s="19"/>
+      <c r="X70" s="20"/>
+      <c r="Y70" s="20"/>
+      <c r="Z70" s="20"/>
+      <c r="AA70" s="20"/>
+      <c r="AB70" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="22">
+        <v>1</v>
+      </c>
+      <c r="AD70" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="71" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L71" s="31"/>
+      <c r="M71" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71">
+        <v>1</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71">
+        <v>0</v>
+      </c>
+      <c r="S71">
+        <v>1</v>
+      </c>
+      <c r="T71">
+        <v>1</v>
+      </c>
+      <c r="U71" s="19"/>
+      <c r="V71" s="19"/>
+      <c r="W71" s="19"/>
+      <c r="X71" s="20"/>
+      <c r="Y71" s="20"/>
+      <c r="Z71" s="20"/>
+      <c r="AA71" s="20"/>
+      <c r="AB71" s="22">
+        <v>1</v>
+      </c>
+      <c r="AC71" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="72" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L72" s="31"/>
+      <c r="M72" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72">
+        <v>1</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="R72">
+        <v>0</v>
+      </c>
+      <c r="S72">
+        <v>1</v>
+      </c>
+      <c r="T72">
+        <v>1</v>
+      </c>
+      <c r="U72" s="20">
+        <v>0</v>
+      </c>
+      <c r="V72" s="20">
+        <v>0</v>
+      </c>
+      <c r="W72" s="20">
+        <v>0</v>
+      </c>
+      <c r="X72" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y72" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z72" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA72" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB72" s="28">
+        <v>1</v>
+      </c>
+      <c r="AC72" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD72" s="28">
+        <v>1</v>
+      </c>
+      <c r="AE72" s="25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="73" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L73" s="31"/>
+      <c r="M73" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <v>1</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73">
+        <v>0</v>
+      </c>
+      <c r="S73">
+        <v>1</v>
+      </c>
+      <c r="T73">
+        <v>1</v>
+      </c>
+      <c r="U73" s="19">
+        <v>0</v>
+      </c>
+      <c r="V73" s="30">
+        <v>1</v>
+      </c>
+      <c r="W73" s="19">
+        <v>0</v>
+      </c>
+      <c r="X73" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB73" s="28">
+        <v>1</v>
+      </c>
+      <c r="AC73" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="28">
+        <v>1</v>
+      </c>
+      <c r="AE73" s="25" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="74" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L74" s="31"/>
+      <c r="M74" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74">
+        <v>1</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <v>0</v>
+      </c>
+      <c r="S74">
+        <v>1</v>
+      </c>
+      <c r="T74">
+        <v>1</v>
+      </c>
+      <c r="U74" s="19"/>
+      <c r="V74" s="19"/>
+      <c r="W74" s="19"/>
+      <c r="X74" s="20"/>
+      <c r="Y74" s="20"/>
+      <c r="Z74" s="20"/>
+      <c r="AA74" s="20"/>
+      <c r="AB74" s="22">
+        <v>1</v>
+      </c>
+      <c r="AC74" s="22">
+        <v>1</v>
+      </c>
+      <c r="AD74" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="75" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="L75" s="31"/>
+      <c r="M75" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75">
+        <v>1</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <v>0</v>
+      </c>
+      <c r="S75">
+        <v>1</v>
+      </c>
+      <c r="T75">
+        <v>1</v>
+      </c>
+      <c r="U75" s="19"/>
+      <c r="V75" s="19"/>
+      <c r="W75" s="19"/>
+      <c r="X75" s="20"/>
+      <c r="Y75" s="20"/>
+      <c r="Z75" s="20"/>
+      <c r="AA75" s="20"/>
+      <c r="AB75" s="28">
+        <v>1</v>
+      </c>
+      <c r="AC75" s="28">
+        <v>1</v>
+      </c>
+      <c r="AD75" s="28">
+        <v>1</v>
+      </c>
+      <c r="AE75" s="25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="76" spans="12:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L76" t="s">
+        <v>57</v>
+      </c>
+      <c r="M76" t="s">
+        <v>34</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>1</v>
+      </c>
+      <c r="P76">
+        <v>1</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="R76">
+        <v>1</v>
+      </c>
+      <c r="S76">
+        <v>1</v>
+      </c>
+      <c r="T76">
+        <v>1</v>
+      </c>
+      <c r="U76" s="19"/>
+      <c r="V76" s="19"/>
+      <c r="W76" s="19"/>
+      <c r="X76" s="20"/>
+      <c r="Y76" s="20"/>
+      <c r="Z76" s="20"/>
+      <c r="AA76" s="20"/>
+      <c r="AB76" s="22"/>
+      <c r="AC76" s="22"/>
+      <c r="AD76" s="22"/>
+      <c r="AE76" s="24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="77" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="M77" t="s">
+        <v>1</v>
+      </c>
+      <c r="U77">
+        <v>0</v>
+      </c>
+      <c r="V77">
+        <v>0</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>0</v>
+      </c>
+      <c r="Y77">
+        <v>0</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>0</v>
+      </c>
+      <c r="AB77" s="28">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="M78" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB78" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC78" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD78" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="M79" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB79" s="28">
+        <v>0</v>
+      </c>
+      <c r="AC79" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD79" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="M80" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="M81" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="L82" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="M82" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="83" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="L83" s="31"/>
+      <c r="M83" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="84" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="L84" s="31"/>
+      <c r="M84" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="85" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="M85" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="86" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="M86" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="87" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="M87" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="88" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="M88" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="89" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="M89" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="90" spans="12:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M90" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="91" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="M91" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="92" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="M92" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="93" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="M93" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="14">
+    <mergeCell ref="L58:L68"/>
+    <mergeCell ref="L69:L75"/>
+    <mergeCell ref="L82:L84"/>
+    <mergeCell ref="M28:M33"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="U57:AA57"/>
+    <mergeCell ref="AB57:AD57"/>
+    <mergeCell ref="N57:T57"/>
+    <mergeCell ref="U12:U13"/>
+    <mergeCell ref="U15:U20"/>
+    <mergeCell ref="U21:U27"/>
     <mergeCell ref="M2:M13"/>
     <mergeCell ref="M25:M27"/>
     <mergeCell ref="M14:M24"/>
-    <mergeCell ref="M28:M33"/>
-    <mergeCell ref="M34:M35"/>
   </mergeCells>
   <conditionalFormatting sqref="A2:L39">
+    <cfRule type="expression" dxfId="7" priority="15">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V10:V28">
+    <cfRule type="expression" dxfId="6" priority="12">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z58">
+    <cfRule type="expression" dxfId="5" priority="8">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE58:AE76">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M77">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M78:M81">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M82:M91">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M92:M93">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>

--- a/ketang/sp21/sp21-proj3-starter/Book1.xlsx
+++ b/ketang/sp21/sp21-proj3-starter/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ketang/MyCS61C/ketang/sp21/sp21-proj3-starter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B04EBEB-13D4-5F42-83E5-EE7E2F93513B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF521B68-6BA8-BD46-8915-0C43CC91E32B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18800" xr2:uid="{8EE1AFFD-A597-2F44-A2B0-7A9A818A6048}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="3380" windowWidth="28800" windowHeight="15900" xr2:uid="{8EE1AFFD-A597-2F44-A2B0-7A9A818A6048}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="98">
   <si>
     <t>inst</t>
   </si>
@@ -297,6 +297,39 @@
   </si>
   <si>
     <t>1110</t>
+  </si>
+  <si>
+    <t>WBSel</t>
+  </si>
+  <si>
+    <t>wbsel</t>
+  </si>
+  <si>
+    <t>0010011</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>0110011</t>
+  </si>
+  <si>
+    <t>0000000</t>
+  </si>
+  <si>
+    <t>0010111</t>
+  </si>
+  <si>
+    <t>1101111</t>
+  </si>
+  <si>
+    <t>csrrw</t>
+  </si>
+  <si>
+    <t>csrrwi</t>
+  </si>
+  <si>
+    <t>csr_sel</t>
   </si>
 </sst>
 </file>
@@ -509,7 +542,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -580,32 +613,12 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill>
@@ -952,10 +965,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB45812B-1177-8547-B4F4-A106F379297B}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AE93"/>
+  <dimension ref="A1:AF144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M54" zoomScale="114" zoomScaleNormal="173" workbookViewId="0">
-      <selection activeCell="V75" sqref="V75"/>
+    <sheetView tabSelected="1" topLeftCell="L115" zoomScale="114" zoomScaleNormal="173" workbookViewId="0">
+      <selection activeCell="Y144" sqref="Y144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2319,7 +2332,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="50" spans="12:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="12:32" x14ac:dyDescent="0.2">
       <c r="Q50" s="16"/>
       <c r="R50" s="16"/>
       <c r="S50" s="16"/>
@@ -2332,7 +2345,7 @@
       <c r="Z50" s="16"/>
       <c r="AA50" s="16"/>
     </row>
-    <row r="57" spans="12:31" x14ac:dyDescent="0.2">
+    <row r="57" spans="12:32" x14ac:dyDescent="0.2">
       <c r="N57" s="31" t="s">
         <v>76</v>
       </c>
@@ -2359,8 +2372,11 @@
       <c r="AE57" s="16" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="58" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="AF57" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58" spans="12:32" x14ac:dyDescent="0.2">
       <c r="L58" s="31" t="s">
         <v>51</v>
       </c>
@@ -2421,8 +2437,11 @@
       <c r="AE58" s="25">
         <v>1000</v>
       </c>
-    </row>
-    <row r="59" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="12:32" x14ac:dyDescent="0.2">
       <c r="L59" s="31"/>
       <c r="M59" t="s">
         <v>3</v>
@@ -2481,8 +2500,11 @@
       <c r="AE59" s="25">
         <v>1100</v>
       </c>
-    </row>
-    <row r="60" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="AF59" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="12:32" x14ac:dyDescent="0.2">
       <c r="L60" s="31"/>
       <c r="M60" s="23" t="s">
         <v>4</v>
@@ -2541,8 +2563,11 @@
       <c r="AE60" s="26" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="61" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="AF60" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="12:32" x14ac:dyDescent="0.2">
       <c r="L61" s="31"/>
       <c r="M61" s="15" t="s">
         <v>5</v>
@@ -2601,8 +2626,11 @@
       <c r="AE61" s="25" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="62" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="12:32" x14ac:dyDescent="0.2">
       <c r="L62" s="31"/>
       <c r="M62" t="s">
         <v>6</v>
@@ -2661,8 +2689,11 @@
       <c r="AE62" s="25" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="63" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="12:32" x14ac:dyDescent="0.2">
       <c r="L63" s="31"/>
       <c r="M63" s="1" t="s">
         <v>7</v>
@@ -2721,8 +2752,11 @@
       <c r="AE63" s="25" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="64" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="12:32" x14ac:dyDescent="0.2">
       <c r="L64" s="31"/>
       <c r="M64" s="11" t="s">
         <v>8</v>
@@ -2781,8 +2815,11 @@
       <c r="AE64" s="25" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="65" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="12:32" x14ac:dyDescent="0.2">
       <c r="L65" s="31"/>
       <c r="M65" s="12" t="s">
         <v>9</v>
@@ -2841,8 +2878,11 @@
       <c r="AE65" s="25" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="66" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="12:32" x14ac:dyDescent="0.2">
       <c r="L66" s="31"/>
       <c r="M66" s="12" t="s">
         <v>10</v>
@@ -2901,8 +2941,11 @@
       <c r="AE66" s="25" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="67" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="AF66" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="12:32" x14ac:dyDescent="0.2">
       <c r="L67" s="31"/>
       <c r="M67" s="13" t="s">
         <v>11</v>
@@ -2961,8 +3004,11 @@
       <c r="AE67" s="25" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="68" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="12:32" x14ac:dyDescent="0.2">
       <c r="L68" s="31"/>
       <c r="M68" s="14" t="s">
         <v>12</v>
@@ -3021,8 +3067,11 @@
       <c r="AE68" s="25" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="69" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="12:32" x14ac:dyDescent="0.2">
       <c r="L69" s="31" t="s">
         <v>53</v>
       </c>
@@ -3083,8 +3132,9 @@
       <c r="AE69" s="25" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="70" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="22"/>
+    </row>
+    <row r="70" spans="12:32" x14ac:dyDescent="0.2">
       <c r="L70" s="31"/>
       <c r="M70" s="1" t="s">
         <v>18</v>
@@ -3129,8 +3179,9 @@
       <c r="AE70" s="25" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="71" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="22"/>
+    </row>
+    <row r="71" spans="12:32" x14ac:dyDescent="0.2">
       <c r="L71" s="31"/>
       <c r="M71" s="11" t="s">
         <v>19</v>
@@ -3176,7 +3227,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="72" spans="12:31" x14ac:dyDescent="0.2">
+    <row r="72" spans="12:32" x14ac:dyDescent="0.2">
       <c r="L72" s="31"/>
       <c r="M72" s="12" t="s">
         <v>20</v>
@@ -3236,7 +3287,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="73" spans="12:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="12:32" x14ac:dyDescent="0.2">
       <c r="L73" s="31"/>
       <c r="M73" s="12" t="s">
         <v>21</v>
@@ -3296,7 +3347,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="74" spans="12:31" x14ac:dyDescent="0.2">
+    <row r="74" spans="12:32" x14ac:dyDescent="0.2">
       <c r="L74" s="31"/>
       <c r="M74" s="13" t="s">
         <v>22</v>
@@ -3342,7 +3393,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="75" spans="12:31" x14ac:dyDescent="0.2">
+    <row r="75" spans="12:32" x14ac:dyDescent="0.2">
       <c r="L75" s="31"/>
       <c r="M75" s="14" t="s">
         <v>23</v>
@@ -3388,7 +3439,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="76" spans="12:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="12:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L76" t="s">
         <v>57</v>
       </c>
@@ -3430,7 +3481,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="77" spans="12:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="12:32" x14ac:dyDescent="0.2">
       <c r="M77" t="s">
         <v>1</v>
       </c>
@@ -3464,8 +3515,11 @@
       <c r="AD77" s="28">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="12:31" x14ac:dyDescent="0.2">
+      <c r="AF77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="12:32" x14ac:dyDescent="0.2">
       <c r="M78" t="s">
         <v>13</v>
       </c>
@@ -3479,7 +3533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="12:31" x14ac:dyDescent="0.2">
+    <row r="79" spans="12:32" x14ac:dyDescent="0.2">
       <c r="M79" t="s">
         <v>14</v>
       </c>
@@ -3493,7 +3547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="12:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="12:32" x14ac:dyDescent="0.2">
       <c r="M80" t="s">
         <v>15</v>
       </c>
@@ -3568,60 +3622,506 @@
         <v>36</v>
       </c>
     </row>
+    <row r="97" spans="21:31" x14ac:dyDescent="0.2">
+      <c r="AE97" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="98" spans="21:31" x14ac:dyDescent="0.2">
+      <c r="U98" t="s">
+        <v>1</v>
+      </c>
+      <c r="V98" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="W98" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="X98" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y98" s="36"/>
+      <c r="Z98" s="36"/>
+      <c r="AA98" s="36"/>
+      <c r="AB98" s="36"/>
+      <c r="AC98" s="36"/>
+      <c r="AD98" s="36"/>
+      <c r="AE98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="21:31" x14ac:dyDescent="0.2">
+      <c r="U99" t="s">
+        <v>2</v>
+      </c>
+      <c r="V99" s="36"/>
+      <c r="W99" s="36"/>
+      <c r="X99" s="36"/>
+      <c r="Y99" s="36"/>
+      <c r="Z99" s="36"/>
+      <c r="AA99" s="36"/>
+      <c r="AB99" s="36"/>
+      <c r="AC99" s="36"/>
+      <c r="AD99" s="36"/>
+      <c r="AE99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="21:31" x14ac:dyDescent="0.2">
+      <c r="U100" t="s">
+        <v>3</v>
+      </c>
+      <c r="V100" s="36"/>
+      <c r="W100" s="36"/>
+      <c r="X100" s="36"/>
+      <c r="Y100" s="36"/>
+      <c r="Z100" s="36"/>
+      <c r="AA100" s="36"/>
+      <c r="AB100" s="36"/>
+      <c r="AC100" s="36"/>
+      <c r="AD100" s="36"/>
+      <c r="AE100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="21:31" x14ac:dyDescent="0.2">
+      <c r="U101" t="s">
+        <v>4</v>
+      </c>
+      <c r="V101" s="36"/>
+      <c r="W101" s="36"/>
+      <c r="X101" s="36"/>
+      <c r="Y101" s="36"/>
+      <c r="Z101" s="36"/>
+      <c r="AA101" s="36"/>
+      <c r="AB101" s="36"/>
+      <c r="AC101" s="36"/>
+      <c r="AD101" s="36"/>
+      <c r="AE101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="21:31" x14ac:dyDescent="0.2">
+      <c r="U102" t="s">
+        <v>5</v>
+      </c>
+      <c r="V102" s="36"/>
+      <c r="W102" s="36"/>
+      <c r="X102" s="36"/>
+      <c r="Y102" s="36"/>
+      <c r="Z102" s="36"/>
+      <c r="AA102" s="36"/>
+      <c r="AB102" s="36"/>
+      <c r="AC102" s="36"/>
+      <c r="AD102" s="36"/>
+      <c r="AE102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="21:31" x14ac:dyDescent="0.2">
+      <c r="U103" t="s">
+        <v>6</v>
+      </c>
+      <c r="V103" s="36"/>
+      <c r="W103" s="36"/>
+      <c r="X103" s="36"/>
+      <c r="Y103" s="36"/>
+      <c r="Z103" s="36"/>
+      <c r="AA103" s="36"/>
+      <c r="AB103" s="36"/>
+      <c r="AC103" s="36"/>
+      <c r="AD103" s="36"/>
+      <c r="AE103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="21:31" x14ac:dyDescent="0.2">
+      <c r="U104" t="s">
+        <v>7</v>
+      </c>
+      <c r="V104" s="36"/>
+      <c r="W104" s="36"/>
+      <c r="X104" s="36"/>
+      <c r="Y104" s="36"/>
+      <c r="Z104" s="36"/>
+      <c r="AA104" s="36"/>
+      <c r="AB104" s="36"/>
+      <c r="AC104" s="36"/>
+      <c r="AD104" s="36"/>
+      <c r="AE104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="21:31" x14ac:dyDescent="0.2">
+      <c r="U105" t="s">
+        <v>8</v>
+      </c>
+      <c r="V105" s="36"/>
+      <c r="W105" s="36"/>
+      <c r="X105" s="36"/>
+      <c r="Y105" s="36"/>
+      <c r="Z105" s="36"/>
+      <c r="AA105" s="36"/>
+      <c r="AB105" s="36"/>
+      <c r="AC105" s="36"/>
+      <c r="AD105" s="36"/>
+      <c r="AE105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="21:31" x14ac:dyDescent="0.2">
+      <c r="U106" t="s">
+        <v>9</v>
+      </c>
+      <c r="V106" s="36"/>
+      <c r="W106" s="36"/>
+      <c r="X106" s="36"/>
+      <c r="Y106" s="36"/>
+      <c r="Z106" s="36"/>
+      <c r="AA106" s="36"/>
+      <c r="AB106" s="36"/>
+      <c r="AC106" s="36"/>
+      <c r="AD106" s="36"/>
+      <c r="AE106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="21:31" x14ac:dyDescent="0.2">
+      <c r="U107" t="s">
+        <v>10</v>
+      </c>
+      <c r="V107" s="36"/>
+      <c r="W107" s="36"/>
+      <c r="X107" s="36"/>
+      <c r="Y107" s="36"/>
+      <c r="Z107" s="36"/>
+      <c r="AA107" s="36"/>
+      <c r="AB107" s="36"/>
+      <c r="AC107" s="36"/>
+      <c r="AD107" s="36"/>
+      <c r="AE107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="21:31" x14ac:dyDescent="0.2">
+      <c r="U108" t="s">
+        <v>11</v>
+      </c>
+      <c r="V108" s="36"/>
+      <c r="W108" s="36"/>
+      <c r="X108" s="36"/>
+      <c r="Y108" s="36"/>
+      <c r="Z108" s="36"/>
+      <c r="AA108" s="36"/>
+      <c r="AB108" s="36"/>
+      <c r="AC108" s="36"/>
+      <c r="AD108" s="36"/>
+      <c r="AE108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="21:31" x14ac:dyDescent="0.2">
+      <c r="U109" t="s">
+        <v>12</v>
+      </c>
+      <c r="V109" s="36"/>
+      <c r="W109" s="36"/>
+      <c r="X109" s="36"/>
+      <c r="Y109" s="36"/>
+      <c r="Z109" s="36"/>
+      <c r="AA109" s="36"/>
+      <c r="AB109" s="36"/>
+      <c r="AC109" s="36"/>
+      <c r="AD109" s="36"/>
+      <c r="AE109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="21:31" x14ac:dyDescent="0.2">
+      <c r="U110" t="s">
+        <v>16</v>
+      </c>
+      <c r="V110" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="W110" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="X110" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y110" s="36"/>
+      <c r="Z110" s="36"/>
+      <c r="AA110" s="36"/>
+      <c r="AB110" s="36"/>
+      <c r="AC110" s="36"/>
+      <c r="AD110" s="36"/>
+      <c r="AE110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="21:31" x14ac:dyDescent="0.2">
+      <c r="U111" t="s">
+        <v>17</v>
+      </c>
+      <c r="V111" s="36"/>
+      <c r="W111" s="36"/>
+      <c r="X111" s="36"/>
+      <c r="Y111" s="36"/>
+      <c r="Z111" s="36"/>
+      <c r="AA111" s="36"/>
+      <c r="AB111" s="36"/>
+      <c r="AC111" s="36"/>
+      <c r="AD111" s="36"/>
+      <c r="AE111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="21:31" x14ac:dyDescent="0.2">
+      <c r="U112" t="s">
+        <v>18</v>
+      </c>
+      <c r="V112" s="36"/>
+      <c r="W112" s="36"/>
+      <c r="X112" s="36"/>
+      <c r="Y112" s="36"/>
+      <c r="Z112" s="36"/>
+      <c r="AA112" s="36"/>
+      <c r="AB112" s="36"/>
+      <c r="AC112" s="36"/>
+      <c r="AD112" s="36"/>
+      <c r="AE112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="21:31" x14ac:dyDescent="0.2">
+      <c r="U113" t="s">
+        <v>19</v>
+      </c>
+      <c r="V113" s="36"/>
+      <c r="W113" s="36"/>
+      <c r="X113" s="36"/>
+      <c r="Y113" s="36"/>
+      <c r="Z113" s="36"/>
+      <c r="AA113" s="36"/>
+      <c r="AB113" s="36"/>
+      <c r="AC113" s="36"/>
+      <c r="AD113" s="36"/>
+      <c r="AE113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="21:31" x14ac:dyDescent="0.2">
+      <c r="U114" t="s">
+        <v>20</v>
+      </c>
+      <c r="V114" s="36"/>
+      <c r="W114" s="36"/>
+      <c r="X114" s="36"/>
+      <c r="Y114" s="36"/>
+      <c r="Z114" s="36"/>
+      <c r="AA114" s="36"/>
+      <c r="AB114" s="36"/>
+      <c r="AC114" s="36"/>
+      <c r="AD114" s="36"/>
+      <c r="AE114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="21:31" x14ac:dyDescent="0.2">
+      <c r="U115" t="s">
+        <v>21</v>
+      </c>
+      <c r="V115" s="36"/>
+      <c r="W115" s="36"/>
+      <c r="X115" s="36"/>
+      <c r="Y115" s="36"/>
+      <c r="Z115" s="36"/>
+      <c r="AA115" s="36"/>
+      <c r="AB115" s="36"/>
+      <c r="AC115" s="36"/>
+      <c r="AD115" s="36"/>
+      <c r="AE115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="21:31" x14ac:dyDescent="0.2">
+      <c r="U116" t="s">
+        <v>22</v>
+      </c>
+      <c r="V116" s="36"/>
+      <c r="W116" s="36"/>
+      <c r="X116" s="36"/>
+      <c r="Y116" s="36"/>
+      <c r="Z116" s="36"/>
+      <c r="AA116" s="36"/>
+      <c r="AB116" s="36"/>
+      <c r="AC116" s="36"/>
+      <c r="AD116" s="36"/>
+      <c r="AE116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="21:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U117" t="s">
+        <v>23</v>
+      </c>
+      <c r="V117" s="36"/>
+      <c r="W117" s="36"/>
+      <c r="X117" s="36"/>
+      <c r="Y117" s="36"/>
+      <c r="Z117" s="36"/>
+      <c r="AA117" s="36"/>
+      <c r="AB117" s="36"/>
+      <c r="AC117" s="36"/>
+      <c r="AD117" s="36"/>
+      <c r="AE117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="21:31" x14ac:dyDescent="0.2">
+      <c r="U118" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="V118" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="W118" s="36"/>
+      <c r="X118" s="36"/>
+      <c r="Y118" s="36"/>
+      <c r="Z118" s="36"/>
+      <c r="AA118" s="36"/>
+      <c r="AB118" s="36"/>
+      <c r="AC118" s="36"/>
+      <c r="AD118" s="36"/>
+      <c r="AE118" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="21:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U119" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="V119" s="36"/>
+      <c r="W119" s="36"/>
+      <c r="X119" s="36"/>
+      <c r="Y119" s="36"/>
+      <c r="Z119" s="36"/>
+      <c r="AA119" s="36"/>
+      <c r="AB119" s="36"/>
+      <c r="AC119" s="36"/>
+      <c r="AD119" s="36"/>
+      <c r="AE119" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="21:31" x14ac:dyDescent="0.2">
+      <c r="U120" t="s">
+        <v>35</v>
+      </c>
+      <c r="V120" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="W120" s="36"/>
+      <c r="X120" s="36"/>
+      <c r="Y120" s="36"/>
+      <c r="Z120" s="36"/>
+      <c r="AA120" s="36"/>
+      <c r="AB120" s="36"/>
+      <c r="AC120" s="36"/>
+      <c r="AD120" s="36"/>
+      <c r="AE120">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="23:25" x14ac:dyDescent="0.2">
+      <c r="W140" t="s">
+        <v>95</v>
+      </c>
+      <c r="X140" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y140" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="141" spans="23:25" x14ac:dyDescent="0.2">
+      <c r="W141">
+        <v>0</v>
+      </c>
+      <c r="X141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="23:25" x14ac:dyDescent="0.2">
+      <c r="W142">
+        <v>1</v>
+      </c>
+      <c r="X142">
+        <v>0</v>
+      </c>
+      <c r="Y142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="23:25" x14ac:dyDescent="0.2">
+      <c r="W143">
+        <v>0</v>
+      </c>
+      <c r="X143">
+        <v>1</v>
+      </c>
+      <c r="Y143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="23:25" x14ac:dyDescent="0.2">
+      <c r="W144">
+        <v>1</v>
+      </c>
+      <c r="X144">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="L58:L68"/>
-    <mergeCell ref="L69:L75"/>
-    <mergeCell ref="L82:L84"/>
-    <mergeCell ref="M28:M33"/>
-    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="M2:M13"/>
+    <mergeCell ref="M25:M27"/>
+    <mergeCell ref="M14:M24"/>
     <mergeCell ref="U57:AA57"/>
     <mergeCell ref="AB57:AD57"/>
     <mergeCell ref="N57:T57"/>
     <mergeCell ref="U12:U13"/>
     <mergeCell ref="U15:U20"/>
     <mergeCell ref="U21:U27"/>
-    <mergeCell ref="M2:M13"/>
-    <mergeCell ref="M25:M27"/>
-    <mergeCell ref="M14:M24"/>
+    <mergeCell ref="L58:L68"/>
+    <mergeCell ref="L69:L75"/>
+    <mergeCell ref="L82:L84"/>
+    <mergeCell ref="M28:M33"/>
+    <mergeCell ref="M34:M35"/>
   </mergeCells>
-  <conditionalFormatting sqref="A2:L39">
-    <cfRule type="expression" dxfId="7" priority="15">
+  <conditionalFormatting sqref="A2:L39 AE133 AE98:AE129 U133 U98:U129">
+    <cfRule type="expression" dxfId="4" priority="18">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M77:M93">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V10:V28">
-    <cfRule type="expression" dxfId="6" priority="12">
+    <cfRule type="expression" dxfId="2" priority="15">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z58">
-    <cfRule type="expression" dxfId="5" priority="8">
+    <cfRule type="expression" dxfId="1" priority="11">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE58:AE76">
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M77">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M78:M81">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M82:M91">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M92:M93">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="0" priority="8">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
